--- a/query_strings.xlsx
+++ b/query_strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OU\master\rm\pre_shot_sniper_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA4C218-4E25-4648-9A5B-4E65CFCE8CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FB779B-7C59-46F1-A3AB-6DBAFADF8FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35340" yWindow="1650" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>quary</t>
   </si>
@@ -67,8 +67,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,11 +398,11 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -409,43 +418,73 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048576" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/query_strings.xlsx
+++ b/query_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OU\master\rm\pre_shot_sniper_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FB779B-7C59-46F1-A3AB-6DBAFADF8FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B9CEE-606F-48CA-9A52-59596E25AD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35340" yWindow="1650" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36840" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>quary</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>snow sniper</t>
+  </si>
+  <si>
+    <t>sniper in the woods</t>
+  </si>
+  <si>
+    <t>sniper in urban environment</t>
+  </si>
+  <si>
+    <t>black ops sniper</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +487,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576" t="s">
         <v>5</v>
